--- a/CDM Content/Digital Building Twin/CDM_RRestrictingObject.xlsx
+++ b/CDM Content/Digital Building Twin/CDM_RRestrictingObject.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuathiele/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://buildingminds1.sharepoint.com/sites/CDM-testteam/Freigegebene Dokumente/General/CDM Content/Digital Building Twin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30B5467-6079-F04E-80C8-860A213C9121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F30B5467-6079-F04E-80C8-860A213C9121}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F8065DEE-B676-C642-AC95-B39A380451D9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" xr2:uid="{85083611-9EE2-4F48-BB3D-6A0A91DF77F0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{85083611-9EE2-4F48-BB3D-6A0A91DF77F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,7 +407,7 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="E7:F7"/>
+      <selection activeCell="H8" sqref="G8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -446,9 +446,6 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-    </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
     </row>
@@ -470,6 +467,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ABB3787A39AC7946B91DE94D6169D5E4" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5c3b2cc69efe0420e2057b4cbb3381b2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="da2ca412-be8f-4031-b82f-0db1c7fd28cd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="918d4b4cb84e834350b9c914eb39184c" ns2:_="">
     <xsd:import namespace="da2ca412-be8f-4031-b82f-0db1c7fd28cd"/>
@@ -653,45 +659,50 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{565F3A0F-3EFD-40FD-B881-FBD7D065D44E}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B31AB8-993E-4D4B-AEA8-7989F5843AC8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="da2ca412-be8f-4031-b82f-0db1c7fd28cd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99A24C1D-9994-4866-9989-C63206960D55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{565F3A0F-3EFD-40FD-B881-FBD7D065D44E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="da2ca412-be8f-4031-b82f-0db1c7fd28cd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B31AB8-993E-4D4B-AEA8-7989F5843AC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="da2ca412-be8f-4031-b82f-0db1c7fd28cd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>